--- a/TC/share_1.xlsx
+++ b/TC/share_1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TC" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Action" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,42 @@
   </si>
   <si>
     <t>verify element</t>
+  </si>
+  <si>
+    <t>填入action或留空时，该step会跳过</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>验证页面文字</t>
+  </si>
+  <si>
+    <t>验证页面元素</t>
+  </si>
+  <si>
+    <t>share step</t>
+  </si>
+  <si>
+    <t>switch to</t>
+  </si>
+  <si>
+    <t>调用公共步骤</t>
+  </si>
+  <si>
+    <t>切换到其他窗口或标签</t>
+  </si>
+  <si>
+    <t>screenshot</t>
+  </si>
+  <si>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>browser</t>
   </si>
 </sst>
 </file>
@@ -411,7 +447,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +535,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Action!$A$1:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -506,22 +554,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>